--- a/src/app/app-playloader/data/sample.07.xlsx
+++ b/src/app/app-playloader/data/sample.07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeylam/repo/njs/njstool/src/app/app-playloader/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE46155-C53D-AB41-95C9-1A8A0B82E763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D1BA76-E919-0B44-A78A-6B1263625338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{EA9BDBA2-0CC1-8A42-AB5A-3B400F638747}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>category.2</t>
+    <t>category.0</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
       </c>
       <c r="C19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd hh:mm:ss.000Z")</f>
-        <v>2024-04-06 17:24:07.500Z</v>
+        <v>2024-04-06 17:31:35.160Z</v>
       </c>
     </row>
   </sheetData>
